--- a/Requirements_Traceability_Matrix.xlsx
+++ b/Requirements_Traceability_Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamad Ahmed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blloyd\Documents\P_Projects\Vox_Design_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1A11EA-EDBC-4C7A-B3DC-C2BE8247CE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3F455A-2DC6-4010-A3E9-D48617EFFA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1 SRS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>SRS Section ID</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>3.8.2</t>
+  </si>
+  <si>
+    <t>Jesse</t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -606,10 +609,10 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.88671875" customWidth="1"/>
@@ -617,7 +620,7 @@
     <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +651,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>3.1</v>
       </c>
@@ -665,7 +668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>3.2</v>
       </c>
@@ -682,7 +685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>3.3</v>
       </c>
@@ -699,7 +702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>3.4</v>
       </c>
@@ -707,7 +710,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>42</v>
@@ -716,7 +719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>3.5</v>
       </c>
@@ -733,7 +736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>3.6</v>
       </c>
@@ -750,7 +753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>3.7</v>
       </c>
@@ -767,7 +770,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>43</v>
       </c>
@@ -784,7 +787,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>44</v>
       </c>
@@ -801,7 +804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>3.9</v>
       </c>
@@ -809,7 +812,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>42</v>
@@ -818,7 +821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>3.1</v>
       </c>
@@ -835,7 +838,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>3.11</v>
       </c>
@@ -852,7 +855,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>3.12</v>
       </c>
@@ -892,9 +895,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,12 +938,12 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1SjNQH7gAA9u9Y_R3xWQgdJfR8mdQ7Ad-hjht9vqAj9w/edit#heading=h.uf9m6nfmmef3","3.2.1")</f>
         <v>3.2.1</v>
@@ -949,13 +952,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1SjNQH7gAA9u9Y_R3xWQgdJfR8mdQ7Ad-hjht9vqAj9w/edit#heading=h.ug5g3rb1dlsm","3.2.2")</f>
         <v>3.2.2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1SjNQH7gAA9u9Y_R3xWQgdJfR8mdQ7Ad-hjht9vqAj9w/edit#heading=h.cfr3r3i641kp","3.2.3")</f>
         <v>3.2.3</v>
@@ -983,9 +986,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,13 +1054,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.44140625" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1119,7 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1SjNQH7gAA9u9Y_R3xWQgdJfR8mdQ7Ad-hjht9vqAj9w/edit#heading=h.uf9m6nfmmef3","3.2.1")</f>
         <v>3.2.1</v>
@@ -1128,7 +1131,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J6" s="4">
         <v>1</v>
       </c>
@@ -1139,7 +1142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J7" s="4">
         <v>2</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J8" s="4">
         <v>3</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>

--- a/Requirements_Traceability_Matrix.xlsx
+++ b/Requirements_Traceability_Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blloyd\Documents\P_Projects\Vox_Design_Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabeleffew/Desktop/School/Fall2022/CSC354/Vox_Design_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3F455A-2DC6-4010-A3E9-D48617EFFA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56685F5A-C389-CF42-91AE-0ED95D3A2903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10420" yWindow="1980" windowWidth="23240" windowHeight="12700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1 SRS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="72">
   <si>
     <t>SRS Section ID</t>
   </si>
@@ -174,13 +174,91 @@
   </si>
   <si>
     <t>Jesse</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>Web Server</t>
+  </si>
+  <si>
+    <t>3.3.2</t>
+  </si>
+  <si>
+    <t>3.3.3</t>
+  </si>
+  <si>
+    <t>3.3.4</t>
+  </si>
+  <si>
+    <t>Chat on Servers</t>
+  </si>
+  <si>
+    <t>3.3.5</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Hamad &amp; Gabe</t>
+  </si>
+  <si>
+    <t>3.3.5.1</t>
+  </si>
+  <si>
+    <t>User Computer</t>
+  </si>
+  <si>
+    <t>3.3.5.2</t>
+  </si>
+  <si>
+    <t>Share Notebook</t>
+  </si>
+  <si>
+    <t>3.3.6</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>3.3.6.1</t>
+  </si>
+  <si>
+    <t>Create Calendar Event</t>
+  </si>
+  <si>
+    <t>3.3.6.2</t>
+  </si>
+  <si>
+    <t>Remove Calendar Event</t>
+  </si>
+  <si>
+    <t>3.3.8</t>
+  </si>
+  <si>
+    <t>Remove Users</t>
+  </si>
+  <si>
+    <t>3.3.9</t>
+  </si>
+  <si>
+    <t>3.3.10</t>
+  </si>
+  <si>
+    <t>Invite Users to Server</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>Configure Server Permissions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -190,26 +268,31 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -219,6 +302,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -266,10 +362,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -289,8 +386,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -595,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -608,19 +708,19 @@
   </sheetPr>
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +751,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>3.1</v>
       </c>
@@ -668,7 +768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>3.2</v>
       </c>
@@ -685,7 +785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3.3</v>
       </c>
@@ -702,7 +802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>3.4</v>
       </c>
@@ -719,7 +819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>3.5</v>
       </c>
@@ -736,7 +836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>3.6</v>
       </c>
@@ -753,7 +853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>3.7</v>
       </c>
@@ -770,7 +870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>43</v>
       </c>
@@ -787,7 +887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>44</v>
       </c>
@@ -804,7 +904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>3.9</v>
       </c>
@@ -821,7 +921,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>3.1</v>
       </c>
@@ -838,7 +938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>3.11</v>
       </c>
@@ -855,7 +955,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>3.12</v>
       </c>
@@ -891,14 +991,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -908,20 +1015,14 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -934,42 +1035,251 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="str">
-        <f>HYPERLINK("https://docs.google.com/document/d/1SjNQH7gAA9u9Y_R3xWQgdJfR8mdQ7Ad-hjht9vqAj9w/edit#heading=h.uf9m6nfmmef3","3.2.1")</f>
-        <v>3.2.1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="str">
-        <f>HYPERLINK("https://docs.google.com/document/d/1SjNQH7gAA9u9Y_R3xWQgdJfR8mdQ7Ad-hjht9vqAj9w/edit#heading=h.ug5g3rb1dlsm","3.2.2")</f>
-        <v>3.2.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="str">
-        <f>HYPERLINK("https://docs.google.com/document/d/1SjNQH7gAA9u9Y_R3xWQgdJfR8mdQ7Ad-hjht9vqAj9w/edit#heading=h.cfr3r3i641kp","3.2.3")</f>
-        <v>3.2.3</v>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="E2:E1000" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E999" xr:uid="{8A63909C-23CB-B948-BF4B-AB8BB6E246DB}">
       <formula1>"Must have,Need to have,Nice to have"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1000" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D999" xr:uid="{A60A6C64-21A7-2A46-B696-3873576E3CC2}">
       <formula1>"Customer,External,Team"</formula1>
     </dataValidation>
   </dataValidations>
@@ -986,9 +1296,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,13 +1364,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1429,7 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1SjNQH7gAA9u9Y_R3xWQgdJfR8mdQ7Ad-hjht9vqAj9w/edit#heading=h.uf9m6nfmmef3","3.2.1")</f>
         <v>3.2.1</v>
@@ -1131,7 +1441,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J6" s="4">
         <v>1</v>
       </c>
@@ -1142,7 +1452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J7" s="4">
         <v>2</v>
       </c>
@@ -1153,7 +1463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J8" s="4">
         <v>3</v>
       </c>
@@ -1161,7 +1471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
